--- a/Instances/04_SlowMoving.xlsx
+++ b/Instances/04_SlowMoving.xlsx
@@ -9,8 +9,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2254,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>3.19</v>
+        <v>0.35</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2283,19 +2285,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -2312,19 +2314,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
@@ -2341,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2370,19 +2372,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>5</v>
@@ -2399,19 +2401,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>5</v>
@@ -2428,19 +2430,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -2457,19 +2459,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -2486,19 +2488,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -2515,19 +2517,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
@@ -2544,19 +2546,19 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
@@ -2573,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>2.6</v>
+        <v>0.42</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2602,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2631,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2660,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2689,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2718,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2747,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2776,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>8.59</v>
+        <v>1.78</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2805,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>8.52</v>
+        <v>1.67</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2834,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>7.63</v>
+        <v>1.49</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2863,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>8.17</v>
+        <v>1.66</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -2890,6 +2892,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2913,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2921,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2929,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2937,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2945,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2961,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2969,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2977,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2985,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2993,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3001,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3009,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3017,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>18</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3025,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3033,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3041,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3049,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3057,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>324</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3065,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>81</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3073,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>405</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3081,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>405</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +4401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3176,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3250,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3324,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3398,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3472,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3546,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3620,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3768,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3842,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3916,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3990,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4212,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4286,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4360,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -4434,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -4508,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -4582,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>

--- a/Instances/04_SlowMoving.xlsx
+++ b/Instances/04_SlowMoving.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2784,7 +2784,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>1.78</v>
+        <v>0.01</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>1.67</v>
+        <v>0.01</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>1.49</v>
+        <v>0.01</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>1.66</v>
+        <v>0.01</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>48.6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>32.4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>81</v>
+        <v>48.6</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_SlowMoving.xlsx
+++ b/Instances/04_SlowMoving.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.3147312204917795</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
@@ -2581,7 +2581,7 @@
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.369066398781063</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
@@ -2749,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01</v>
+        <v>0.152857471795132</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01</v>
+        <v>0.1894870966632516</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2842,7 +2842,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01</v>
+        <v>0.238416956012383</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01</v>
+        <v>0.5556755924639351</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>81</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>81</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>81</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>48.6</v>
+        <v>32.4</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_SlowMoving.xlsx
+++ b/Instances/04_SlowMoving.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3147312204917795</v>
+        <v>0.02202166899481029</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
@@ -2581,7 +2581,7 @@
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.369066398781063</v>
+        <v>0.01755038143669009</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
@@ -2749,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.152857471795132</v>
+        <v>0.01130863410104861</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1894870966632516</v>
+        <v>0.009996556393831043</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>0.238416956012383</v>
+        <v>0.01555016665149654</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5556755924639351</v>
+        <v>0.03768783301985451</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>48.6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>64.8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>32.4</v>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_SlowMoving.xlsx
+++ b/Instances/04_SlowMoving.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02202166899481029</v>
+        <v>0.2027393188289067</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01755038143669009</v>
+        <v>0.1870200618242123</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
@@ -2749,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01130863410104861</v>
+        <v>0.09831394851314852</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.009996556393831043</v>
+        <v>0.1043443237510693</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01555016665149654</v>
+        <v>0.08893454995838913</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2871,7 +2871,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03768783301985451</v>
+        <v>0.3131924800744388</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>81</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>32.4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>81</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16.2</v>
+        <v>64.8</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_SlowMoving.xlsx
+++ b/Instances/04_SlowMoving.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2027393188289067</v>
+        <v>0.3563999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.11655</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.1166888888888889</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.1160722222222222</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.1138777777777778</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.1141333333333333</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1136444444444445</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.1202277777777778</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.1193833333333333</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.1201666666666667</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1870200618242123</v>
+        <v>0.3413666666666666</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.1140277777777778</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.1124944444444445</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.1113222222222222</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.11165</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.1119</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1114444444444444</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09831394851314852</v>
+        <v>0.1315</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1043443237510693</v>
+        <v>0.1396</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08893454995838913</v>
+        <v>0.1728</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3131924800744388</v>
+        <v>0.5317</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16.2</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>64.8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>81</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>64.8</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>64.8</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_SlowMoving.xlsx
+++ b/Instances/04_SlowMoving.xlsx
@@ -2262,7 +2262,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3563999999999999</v>
+        <v>0.192456</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.11655</v>
+        <v>0.06293700000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1166888888888889</v>
+        <v>0.06301200000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2349,7 +2349,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1160722222222222</v>
+        <v>0.06267900000000001</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1138777777777778</v>
+        <v>0.06149399999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1141333333333333</v>
+        <v>0.06163200000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1136444444444445</v>
+        <v>0.06136800000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1202277777777778</v>
+        <v>0.06492300000000001</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.12</v>
+        <v>0.0648</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1193833333333333</v>
+        <v>0.064467</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1201666666666667</v>
+        <v>0.06489</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2581,7 +2581,7 @@
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3413666666666666</v>
+        <v>0.184338</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2610,7 +2610,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1140277777777778</v>
+        <v>0.061575</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2639,7 +2639,7 @@
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1124944444444445</v>
+        <v>0.06074700000000001</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2668,7 +2668,7 @@
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1113222222222222</v>
+        <v>0.060114</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2697,7 +2697,7 @@
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>0.11165</v>
+        <v>0.060291</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2726,7 +2726,7 @@
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1119</v>
+        <v>0.06042600000000001</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2755,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1114444444444444</v>
+        <v>0.06018</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1315</v>
+        <v>0.07101000000000002</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1396</v>
+        <v>0.07538400000000001</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1728</v>
+        <v>0.09331200000000001</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5317</v>
+        <v>0.287118</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
